--- a/DADA2/WADE003-arcticpred-12SP1-taxa-130trunc2.xlsx
+++ b/DADA2/WADE003-arcticpred-12SP1-taxa-130trunc2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\DADA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7D30E-67FE-41A5-A185-C64538A3F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E106CED-5C26-489E-9255-3B7B0ACC0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="520">
   <si>
     <t>rownames</t>
   </si>
@@ -1253,6 +1253,333 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>no 100% matches; &gt;98% Spirinchus thaleichthys, Osmerus mordax dentex</t>
+  </si>
+  <si>
+    <t>100% matches: Myoxocephalus scorpius, Myoxocephalus quadricornis, Myoxocephalus thompsonii, Myoxocephalus aenaeus</t>
+  </si>
+  <si>
+    <t>no 100% match; 98.08% Hypomesus olidus</t>
+  </si>
+  <si>
+    <t>100% matches: Glyptocephalus stelleri, Glyptocephalus zachirus, Myzopsetta proboscidea</t>
+  </si>
+  <si>
+    <t>no 100% match: 98.72% Spirinchus thaleichthys</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.37% Eleginus gracilis</t>
+  </si>
+  <si>
+    <t>100% matches: Gymnocanthus intermedius, Gymnocanthus pistilliger</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.37% Elenginus gracilis</t>
+  </si>
+  <si>
+    <t>100% matches: Liparis gibbus, Liparis ochotensis</t>
+  </si>
+  <si>
+    <t>100% matches: Lumpenus fabricii, Leptoclinus maculatus</t>
+  </si>
+  <si>
+    <t>Gymnocanthus tricuspis</t>
+  </si>
+  <si>
+    <t>100% matches: Platichthys stellatus, Myzopsetta ferruginea, Platichthys flesus, Liopsetta glacialis, Kareius bicoloratus x Platichthys stellatus (a hybrid), Platichthys stellatus x Verasper variegatus (a hybrid)</t>
+  </si>
+  <si>
+    <t>no 100% matches: &gt;98% Myoxocephalus scorpius, Myoxocephalus quadricornis, Myoxocephalus thompsonii, Myoxocephalus jaok, Myoxocephalus stelleri, Myoxocephalus polyacanthocephalus, Microcottus sellaris, Megalocottus platycephalus</t>
+  </si>
+  <si>
+    <t>no 100% matches: 99.36% Osmerus mordax dentex</t>
+  </si>
+  <si>
+    <t>no 100% matches: &gt;98% Myoxocephalus stelleri, Myoxocephalus jaok, Myoxocephalus polyacanthocephalus, Microcottus sellaris, Myoxocephalus quadricornis, Myoxocephalus scorpius, Myoxocephalus thompsonii, Myoxocephalus brandtii</t>
+  </si>
+  <si>
+    <t>100% matches: Hippoglossoides robustus, Limanda limanda, Limanda aspera, Hippoglossoides elassodon, Limanda sakhalinensis, Hippoglossoides platessoides, Hippoglossoides dubius, Cleisthenes pinetorum, Cleisthenes herzensteini</t>
+  </si>
+  <si>
+    <t>100% matches: Myoxocephalus stelleri, Myoxocephalus jaok, Myoxocephalus polyacanthocephalu</t>
+  </si>
+  <si>
+    <t>100% matches: Hemilepidotus papilio, Hemilepidotus jordani</t>
+  </si>
+  <si>
+    <t>Boreogadus saida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no 100% matches: &gt;98% Osmerus mordax dentex, Spirinchus thaleichthys </t>
+  </si>
+  <si>
+    <t>100% matches: Lepidopsetta polyxystra, Lepidopsetta bilineata</t>
+  </si>
+  <si>
+    <t>no 100% match: &gt;98% Osmerus mordax dentex, Spirinchus thaleichthys</t>
+  </si>
+  <si>
+    <t>no 100% match: &gt;98% Osmerus mordax dentex, , Spirinchus thaleichthys</t>
+  </si>
+  <si>
+    <t>no 100% match: 94.08% Sagmatias obliquidens</t>
+  </si>
+  <si>
+    <t>Stichaeus punctatus</t>
+  </si>
+  <si>
+    <t>100% matches: Pleuronectes quadrituberculatus, Pleuronectes platessa</t>
+  </si>
+  <si>
+    <t>no 100% matches:  94.08% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36% Osmerus mordax dentex</t>
+  </si>
+  <si>
+    <t>no 100% match: &gt;98% Microgadus tomcod, Eleginus gracilis, Microgadus proximus</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36% Eurymen gyrinus</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36% Lumpenus fabricii, Leptoclinus maculatus</t>
+  </si>
+  <si>
+    <t>NO SIGNIFICANT MATCH</t>
+  </si>
+  <si>
+    <t>no 100% match: 97.44% Pusa hispida</t>
+  </si>
+  <si>
+    <t>Acantholumpenus mackayi</t>
+  </si>
+  <si>
+    <t>no 100% match: 93.12% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>100% matches: Podothecus veternus, Sarritor frenatus, Leptagonus decagonus</t>
+  </si>
+  <si>
+    <t>100% matches: Hippoglossoides robustus, Limanda limanda, Limanda aspera, Hippoglossoides elassodon, Limanda sakhalinensis, Hippoglossoides platessoides, Pseudopleuronectes americanus, Hippoglossoides dubius, Cleisthenes pinetorum, Cleisthenes herzensteini</t>
+  </si>
+  <si>
+    <t>no 100% match: 88.82% Mesoplodon grayi</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.37% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>no 100% match: 91.77% Delphinapterus leucas, Monodon monoceros</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36% Glyptocephalus stelleri, Glyptocephalus zachirus, Myzopsetta proboscidea</t>
+  </si>
+  <si>
+    <t>no 100% matches: 99.36% Myoxocephalus scorpius, Myoxocephalus quadricornis, Myoxocephalus thompsonii, Myoxocephalus aenaeus</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36% Platichthys stellatus, Platichthys flesus, Myzopsetta ferruginea, Kareius bicoloratus x Platichthys stellatu (hybrid), Liopsetta glacialis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% matches: Coregonus lavaretus, Coregonus macrophthalmus, Coregonus oxyrinchus, Coregonus baicalensis, Coregonus clupeaformis, Coregonus migratorius, Coregonus maraena, Coregonus muksu, Coregonus ussuriensis, Coregonus peled, Coregonus steinmanni, Coregonus cluncaformis, Coregonus nasus </t>
+  </si>
+  <si>
+    <t>no 100% match: 99.65% Osmerus mordax dentex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no 100% match: 99.36% Glyptocephalus zachirus, Limanda limanda, Limanda sakhalinensis, Hippoglossoides elassodon, Hippoglossoides dubius, Limanda aspera, Hippoglossoides platessoides, Hippoglossoides robustus, Cleisthenes pinetorum, Myzopsetta proboscidea, Cleisthenes herzensteini, Hippoglossoides platessoides, Pseudopleuronectes americanus, Glyptocephalus zachirus, </t>
+  </si>
+  <si>
+    <t>100% matches: Liparis gibbus, Liparis ochotensis, Liparis ochotensis, Liparis bathyarcticus</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36% Myoxocephalus quadricornis, Myoxocephalus aenaeus, Myoxocephalus scorpius, Myoxocephalus thompsonii</t>
+  </si>
+  <si>
+    <t>no 100% match: 95.35% Mesoplodon densirostris</t>
+  </si>
+  <si>
+    <t>no 100% match: 97.10% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.32% Osmerus mordax dentex</t>
+  </si>
+  <si>
+    <t>no 100% match: 95% Orcaella heinsohni</t>
+  </si>
+  <si>
+    <t>no 100% match: 98.08% Pungitius pungitius, Pungitius laevis</t>
+  </si>
+  <si>
+    <t>no 100% match: 98.08% Gasterosteus aculeatus, Gasterosteus nipponicus</t>
+  </si>
+  <si>
+    <t>no 100% match: 88.61% Mesoplodon densirostris</t>
+  </si>
+  <si>
+    <t>100% match: "Uncultured bacertium,"Clostridium moniliforme, Eubacterium moniliforme)</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.37% Oncorhynchus gorbuscha</t>
+  </si>
+  <si>
+    <t>no 100% match: 98.73% Microcottus sellaris</t>
+  </si>
+  <si>
+    <t>no 100% match: 96.79% Pusa hispida, Pusa siberica</t>
+  </si>
+  <si>
+    <t>no 100% match: 96.20% Delphinapterus leucas, Monodon monoceros</t>
+  </si>
+  <si>
+    <t>no 100% match: 95.50% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>no 100% match: 85.35% Mesoplodon densirostris</t>
+  </si>
+  <si>
+    <t>Oncorhynchus gorbuscha</t>
+  </si>
+  <si>
+    <t>no 100% match: 86.16% Indopacetus pacificus</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.37% Oncorhynchus kisutch</t>
+  </si>
+  <si>
+    <t>100% matches: Clostridium fallax, "Uncultured bacterium"</t>
+  </si>
+  <si>
+    <t>no 100% match: &gt;98% Oncorhynchus kisutch, Oncorhynchus keta, Oncorhynchus nerka, Oncorhynchus mykiss, Oncorhynchus kawamurae</t>
+  </si>
+  <si>
+    <t>no 100% match: 94.94% Delphinapterus leucas, Monodon monoceros</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.37% Gadus chalcogrammus, Gadus morhua</t>
+  </si>
+  <si>
+    <t>no 100% match (no matches that made sense either)</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36% Platichthys stellatus, Kareius bicoloratus x Platichthys stellatus (hybrid), Platichthys flesus, Myzopsetta ferruginea, Platichthys stellatus x Verasper variegatus (hybrid), Liopsetta glacialis</t>
+  </si>
+  <si>
+    <t>no 100% match: 98.10% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.05% Eleginus gracilis</t>
+  </si>
+  <si>
+    <t>no 100% match: 97.47% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>no 100% match: 96.82% Myoxocephalus brandtii, Myoxocephalus quadricornis, Myoxocephalus aenaeus, Myoxocephalus scorpius, Myoxocephalus thompsonii</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.38% Mallotus villosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no 100% match (no matches that made sense) </t>
+  </si>
+  <si>
+    <t>no 100% match: 88.61% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>no 100% match: 89.24% Mesoplodon densirostris</t>
+  </si>
+  <si>
+    <t>no 100% match: 90.75% Monodon monoceros</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.37% Coregonus lavaretus, Coregonus macrophthalmus, Coregonus oxyrinchus, Coregonus baicalensis, Coregonus clupeaformis, Coregonus migratorius, Coregonus zugerbalchen, Coregonus maraena, Coregonus muksun, Coregonus ussuriensis, Coregonus peled, Coregonus steinmanni, Coregonus albellus, Coregonus autumnalis, Stenodus leucichthys</t>
+  </si>
+  <si>
+    <t>100 matches: Gadus macrocephalus, Gadus morhua, Gadus chalcogrammus</t>
+  </si>
+  <si>
+    <t>no 100% match: 95.57 Delphinapterus leucas, Monodon monoceros</t>
+  </si>
+  <si>
+    <t>no 100% match (no matches that make sense) - likely Mammalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no 100% match: 98.08% Erignathus barbatus </t>
+  </si>
+  <si>
+    <t>no 100% match: 99.36 Sus scrofa</t>
+  </si>
+  <si>
+    <t>No 100% match: 99.37% Coregonus spp.</t>
+  </si>
+  <si>
+    <t>No 100% match: 99.08% Gymnocanthus tricuspis, Gymnocanthus intermedius, Gymnocanthus pistilliger</t>
+  </si>
+  <si>
+    <t>No 100% match: 94.90% Gymnocanthus tricuspis, Gymnocanthus intermedius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% matches: Myoxocephalus quadricornis, Myoxocephalus aenaeus, Myoxocephalus scorpius, Myoxocephalus thompsonii </t>
+  </si>
+  <si>
+    <t>no 100% matches -  CHECK IF MAMMALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No 100% match: 99.05% Clupea harengus, Clupea pallasii, Sprattus sprattus, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% matches: Myzopsetta proboscidea, Glyptocephalus zachirus, Glyptocephalus stelleri, </t>
+  </si>
+  <si>
+    <t>No 100% match: 97.94% Osmerus mordax dentex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no 100% match: 99.36% Thunnus alalunga, Thunnus thynnus, Thunnus orientalis, </t>
+  </si>
+  <si>
+    <t>no 100% match (no match that made sense)</t>
+  </si>
+  <si>
+    <t>No 100% match: 98.10% Sagmatias obliquidens - MAMMALIA</t>
+  </si>
+  <si>
+    <t>100% matches: Glyptocephalus zachirus, Platichthys stellatus, Kareius bicoloratus x Platichthys stellatus (hybrid), Hippoglossus stenolepis, Limanda limanda, Limanda sakhalinensis, Hippoglossus hippoglossus , Hippoglossoides robustus, Platichthys flesus, Hippoglossoides elassodon, Myzopsetta ferruginea, Platichthys stellatus x Verasper variegatus (hybrid), Hippoglossoides dubius, Limanda aspera, Liopsetta glacialis , Hippoglossoides platessoides, Cleisthenes pinetorum, Myzopsetta proboscidea, Cleisthenes herzensteini, Glyptocephalus zachirus</t>
+  </si>
+  <si>
+    <t>no 100% match: 91.14% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>Lumpenus sagitta</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.05% Delphinapterus leucas, Monodon monoceros</t>
+  </si>
+  <si>
+    <t>no 100% match: 91.14% Delphinapterus leucas, Monodon monoceros</t>
+  </si>
+  <si>
+    <t>no 100% match: 98.73% Cottus cognatus</t>
+  </si>
+  <si>
+    <t>no 100% match: 99.44% Eleginus gracilis</t>
+  </si>
+  <si>
+    <t>100% matches: Sebastes mystinus, Sebastes entomelas</t>
+  </si>
+  <si>
+    <t>no 100% matches: 89.74% Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>Other Taxonomic/Geographic notes</t>
+  </si>
+  <si>
+    <t>Other &gt;98% matches: Spirinchus lanceolatus is native to the Hokkaido region of Japan</t>
+  </si>
+  <si>
+    <t>Other &gt;98% matches: Myoxocephalus aenaeus is found in the North Atlantic (e.g. Hudson Bay, Labrador Sea)</t>
   </si>
 </sst>
 </file>
@@ -1302,12 +1629,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="I297" sqref="I297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1627,9 +1955,11 @@
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="92.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,8 +1987,11 @@
       <c r="I1" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +2017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1707,7 +2040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1733,7 +2066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +2092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1778,8 +2111,11 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1805,7 +2141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1831,7 +2167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1857,7 +2193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1876,8 +2212,14 @@
       <c r="F10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>411</v>
+      </c>
+      <c r="J10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1899,8 +2241,11 @@
       <c r="G11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1926,33 +2271,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1978,21 +2323,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2011,8 +2359,11 @@
       <c r="F16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2031,8 +2382,11 @@
       <c r="F17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2051,8 +2405,11 @@
       <c r="F18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2077,8 +2434,11 @@
       <c r="H19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2098,7 +2458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2123,8 +2483,11 @@
       <c r="H21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2143,8 +2506,11 @@
       <c r="F22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2169,8 +2535,11 @@
       <c r="H23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2189,8 +2558,11 @@
       <c r="F24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2206,8 +2578,11 @@
       <c r="E25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2226,8 +2601,11 @@
       <c r="F26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2246,8 +2624,11 @@
       <c r="F27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2266,8 +2647,11 @@
       <c r="F28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2293,7 +2677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2315,8 +2699,14 @@
       <c r="G30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" t="s">
+        <v>423</v>
+      </c>
+      <c r="J30" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2342,7 +2732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2368,7 +2758,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2387,8 +2777,11 @@
       <c r="F33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -2410,8 +2803,14 @@
       <c r="G34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J34" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -2430,8 +2829,11 @@
       <c r="F35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2450,8 +2852,11 @@
       <c r="F36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2477,7 +2882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2499,8 +2904,11 @@
       <c r="G38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2516,8 +2924,11 @@
       <c r="E39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -2543,7 +2954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2569,7 +2980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2595,12 +3006,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2625,8 +3039,11 @@
       <c r="H44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2645,8 +3062,11 @@
       <c r="F45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -2665,8 +3085,11 @@
       <c r="F46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -2685,8 +3108,11 @@
       <c r="F47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2705,8 +3131,11 @@
       <c r="F48" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -2732,7 +3161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2751,8 +3180,11 @@
       <c r="F50" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -2778,7 +3210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2804,7 +3236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -2823,8 +3255,11 @@
       <c r="F53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2850,7 +3285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -2869,8 +3304,11 @@
       <c r="F55" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -2886,8 +3324,11 @@
       <c r="E56" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I56" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -2906,8 +3347,11 @@
       <c r="F57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -2933,7 +3377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -2959,7 +3403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -2985,7 +3429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -3011,7 +3455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -3037,7 +3481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -3056,8 +3500,11 @@
       <c r="F63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I63" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -3083,7 +3530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -3109,7 +3556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -3128,8 +3575,11 @@
       <c r="F66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I66" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3155,7 +3605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -3181,7 +3631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -3200,48 +3650,57 @@
       <c r="F69" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="I69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="I70" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I71" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -3267,7 +3726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -3293,7 +3752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -3319,7 +3778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -3338,8 +3797,11 @@
       <c r="F75" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I75" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>130</v>
       </c>
@@ -3355,8 +3817,11 @@
       <c r="E76" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I76" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -3375,8 +3840,11 @@
       <c r="F77" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I77" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -3402,7 +3870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -3428,7 +3896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -3447,8 +3915,11 @@
       <c r="F80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I80" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>135</v>
       </c>
@@ -3474,7 +3945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -3493,8 +3964,11 @@
       <c r="F82" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I82" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>137</v>
       </c>
@@ -3520,7 +3994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -3539,8 +4013,11 @@
       <c r="F84" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I84" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -3559,8 +4036,11 @@
       <c r="F85" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -3576,8 +4056,11 @@
       <c r="E86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I86" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>141</v>
       </c>
@@ -3600,7 +4083,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>143</v>
       </c>
@@ -3619,8 +4102,11 @@
       <c r="F88" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I88" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>144</v>
       </c>
@@ -3639,8 +4125,11 @@
       <c r="F89" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -3659,8 +4148,11 @@
       <c r="F90" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -3686,7 +4178,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -3696,8 +4188,11 @@
       <c r="C92" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I92" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>151</v>
       </c>
@@ -3723,7 +4218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -3749,7 +4244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -3768,8 +4263,11 @@
       <c r="F95" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I95" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>154</v>
       </c>
@@ -3795,7 +4293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>155</v>
       </c>
@@ -3814,8 +4312,11 @@
       <c r="F97" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I97" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -3834,8 +4335,11 @@
       <c r="F98" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>157</v>
       </c>
@@ -3854,8 +4358,11 @@
       <c r="F99" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>158</v>
       </c>
@@ -3881,7 +4388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>159</v>
       </c>
@@ -3900,8 +4407,11 @@
       <c r="F101" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I101" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>160</v>
       </c>
@@ -3927,7 +4437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>161</v>
       </c>
@@ -3953,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>162</v>
       </c>
@@ -3963,8 +4473,11 @@
       <c r="C104" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I104" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -3990,7 +4503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -4009,8 +4522,11 @@
       <c r="F106" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -4029,25 +4545,31 @@
       <c r="F107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+      <c r="I107" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I108" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -4073,7 +4595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>168</v>
       </c>
@@ -4092,8 +4614,11 @@
       <c r="F110" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I110" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>169</v>
       </c>
@@ -4109,8 +4634,11 @@
       <c r="E111" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I111" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>170</v>
       </c>
@@ -4136,7 +4664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>171</v>
       </c>
@@ -4155,8 +4683,11 @@
       <c r="F113" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I113" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>172</v>
       </c>
@@ -4182,7 +4713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>173</v>
       </c>
@@ -4208,7 +4739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -4234,7 +4765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>175</v>
       </c>
@@ -4260,7 +4791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>176</v>
       </c>
@@ -4276,8 +4807,11 @@
       <c r="E118" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I118" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>177</v>
       </c>
@@ -4296,8 +4830,11 @@
       <c r="F119" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I119" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -4323,7 +4860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>179</v>
       </c>
@@ -4336,8 +4873,11 @@
       <c r="D121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I121" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>180</v>
       </c>
@@ -4362,8 +4902,11 @@
       <c r="H122" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I122" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>181</v>
       </c>
@@ -4382,8 +4925,11 @@
       <c r="F123" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I123" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>182</v>
       </c>
@@ -4408,8 +4954,11 @@
       <c r="H124" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I124" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>183</v>
       </c>
@@ -4435,7 +4984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -4461,7 +5010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>185</v>
       </c>
@@ -4480,8 +5029,11 @@
       <c r="F127" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I127" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>186</v>
       </c>
@@ -4507,7 +5059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>187</v>
       </c>
@@ -4533,7 +5085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>188</v>
       </c>
@@ -4559,7 +5111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>189</v>
       </c>
@@ -4569,8 +5121,11 @@
       <c r="C131" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I131" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>190</v>
       </c>
@@ -4596,7 +5151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>191</v>
       </c>
@@ -4622,7 +5177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>192</v>
       </c>
@@ -4648,7 +5203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>193</v>
       </c>
@@ -4664,8 +5219,11 @@
       <c r="E135" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I135" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>194</v>
       </c>
@@ -4684,8 +5242,11 @@
       <c r="F136" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I136" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>195</v>
       </c>
@@ -4707,8 +5268,11 @@
       <c r="G137" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I137" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -4734,7 +5298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>197</v>
       </c>
@@ -4753,8 +5317,11 @@
       <c r="F139" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I139" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -4780,7 +5347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -4806,7 +5373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -4832,7 +5399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -4858,7 +5425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -4877,8 +5444,11 @@
       <c r="F144" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I144" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>203</v>
       </c>
@@ -4904,7 +5474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>204</v>
       </c>
@@ -4930,7 +5500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>205</v>
       </c>
@@ -4949,8 +5519,11 @@
       <c r="F147" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I147" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>206</v>
       </c>
@@ -4976,7 +5549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>207</v>
       </c>
@@ -4998,8 +5571,11 @@
       <c r="G149" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I149" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>208</v>
       </c>
@@ -5025,7 +5601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -5051,7 +5627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>210</v>
       </c>
@@ -5073,8 +5649,11 @@
       <c r="G152" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I152" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -5093,8 +5672,11 @@
       <c r="F153" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I153" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>212</v>
       </c>
@@ -5113,8 +5695,11 @@
       <c r="F154" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I154" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>213</v>
       </c>
@@ -5139,8 +5724,11 @@
       <c r="H155" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I155" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>214</v>
       </c>
@@ -5166,7 +5754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>215</v>
       </c>
@@ -5192,7 +5780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>216</v>
       </c>
@@ -5211,8 +5799,11 @@
       <c r="F158" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I158" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>217</v>
       </c>
@@ -5238,7 +5829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>218</v>
       </c>
@@ -5257,8 +5848,11 @@
       <c r="F160" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I160" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>219</v>
       </c>
@@ -5284,7 +5878,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -5310,7 +5904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -5332,8 +5926,11 @@
       <c r="G163" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I163" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -5356,7 +5953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -5366,8 +5963,11 @@
       <c r="C165" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I165" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>226</v>
       </c>
@@ -5393,7 +5993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>227</v>
       </c>
@@ -5419,7 +6019,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>231</v>
       </c>
@@ -5433,7 +6033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>232</v>
       </c>
@@ -5453,7 +6053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>233</v>
       </c>
@@ -5479,7 +6079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>234</v>
       </c>
@@ -5505,7 +6105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>235</v>
       </c>
@@ -5531,7 +6131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>236</v>
       </c>
@@ -5547,8 +6147,11 @@
       <c r="E173" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I173" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>237</v>
       </c>
@@ -5567,8 +6170,11 @@
       <c r="F174" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I174" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>238</v>
       </c>
@@ -5587,8 +6193,11 @@
       <c r="F175" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I175" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>239</v>
       </c>
@@ -5614,7 +6223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>240</v>
       </c>
@@ -5630,8 +6239,11 @@
       <c r="E177" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I177" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>241</v>
       </c>
@@ -5650,8 +6262,11 @@
       <c r="F178" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I178" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>242</v>
       </c>
@@ -5670,8 +6285,11 @@
       <c r="F179" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I179" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>243</v>
       </c>
@@ -5684,8 +6302,11 @@
       <c r="D180" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I180" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>244</v>
       </c>
@@ -5698,8 +6319,11 @@
       <c r="D181" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I181" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>248</v>
       </c>
@@ -5721,8 +6345,11 @@
       <c r="G182" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I182" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>249</v>
       </c>
@@ -5748,7 +6375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>250</v>
       </c>
@@ -5764,8 +6391,11 @@
       <c r="E184" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I184" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>251</v>
       </c>
@@ -5784,13 +6414,19 @@
       <c r="F185" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I185" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I186" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -5806,8 +6442,11 @@
       <c r="E187" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I187" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>254</v>
       </c>
@@ -5823,8 +6462,11 @@
       <c r="E188" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I188" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>255</v>
       </c>
@@ -5843,8 +6485,11 @@
       <c r="F189" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I189" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>256</v>
       </c>
@@ -5870,7 +6515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>257</v>
       </c>
@@ -5886,8 +6531,11 @@
       <c r="E191" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I191" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>258</v>
       </c>
@@ -5897,31 +6545,37 @@
       <c r="C192" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+      <c r="I192" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B193" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="B193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I193" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>260</v>
       </c>
@@ -5931,8 +6585,11 @@
       <c r="C194" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I194" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>261</v>
       </c>
@@ -5954,8 +6611,11 @@
       <c r="G195" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I195" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>262</v>
       </c>
@@ -5968,8 +6628,11 @@
       <c r="D196" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I196" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>263</v>
       </c>
@@ -5995,7 +6658,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>268</v>
       </c>
@@ -6017,8 +6680,11 @@
       <c r="G198" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I198" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>269</v>
       </c>
@@ -6034,8 +6700,11 @@
       <c r="E199" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I199" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>270</v>
       </c>
@@ -6061,7 +6730,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>271</v>
       </c>
@@ -6087,7 +6756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -6113,12 +6782,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
+    <row r="203" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I203" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>274</v>
       </c>
@@ -6131,8 +6803,11 @@
       <c r="D204" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I204" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -6148,8 +6823,11 @@
       <c r="E205" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I205" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -6168,8 +6846,11 @@
       <c r="F206" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I206" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>277</v>
       </c>
@@ -6195,7 +6876,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>281</v>
       </c>
@@ -6220,8 +6901,11 @@
       <c r="H208" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I208" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>282</v>
       </c>
@@ -6247,7 +6931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>283</v>
       </c>
@@ -6266,8 +6950,11 @@
       <c r="F210" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I210" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>284</v>
       </c>
@@ -6283,8 +6970,11 @@
       <c r="E211" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I211" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>285</v>
       </c>
@@ -6310,7 +7000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>286</v>
       </c>
@@ -6336,7 +7026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>287</v>
       </c>
@@ -6346,8 +7036,11 @@
       <c r="C214" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I214" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>288</v>
       </c>
@@ -6363,8 +7056,11 @@
       <c r="E215" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I215" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>289</v>
       </c>
@@ -6383,8 +7079,11 @@
       <c r="F216" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I216" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>290</v>
       </c>
@@ -6410,7 +7109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>291</v>
       </c>
@@ -6436,7 +7135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>292</v>
       </c>
@@ -6462,7 +7161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>293</v>
       </c>
@@ -6488,7 +7187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>294</v>
       </c>
@@ -6507,8 +7206,11 @@
       <c r="F221" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I221" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>295</v>
       </c>
@@ -6524,8 +7226,11 @@
       <c r="E222" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I222" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>296</v>
       </c>
@@ -6551,7 +7256,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>301</v>
       </c>
@@ -6567,8 +7272,11 @@
       <c r="E224" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I224" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>302</v>
       </c>
@@ -6593,8 +7301,11 @@
       <c r="H225" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I225" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>305</v>
       </c>
@@ -6614,7 +7325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>306</v>
       </c>
@@ -6640,7 +7351,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>309</v>
       </c>
@@ -6650,8 +7361,11 @@
       <c r="C228" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I228" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>310</v>
       </c>
@@ -6667,8 +7381,11 @@
       <c r="E229" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I229" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>311</v>
       </c>
@@ -6694,7 +7411,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>313</v>
       </c>
@@ -6710,8 +7427,11 @@
       <c r="E231" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I231" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>314</v>
       </c>
@@ -6721,8 +7441,11 @@
       <c r="C232" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I232" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>315</v>
       </c>
@@ -6738,8 +7461,11 @@
       <c r="E233" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I233" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>316</v>
       </c>
@@ -6752,8 +7478,11 @@
       <c r="D234" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I234" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>317</v>
       </c>
@@ -6779,7 +7508,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>320</v>
       </c>
@@ -6793,7 +7522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>321</v>
       </c>
@@ -6806,8 +7535,11 @@
       <c r="D237" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I237" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>322</v>
       </c>
@@ -6829,8 +7561,11 @@
       <c r="G238" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I238" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>323</v>
       </c>
@@ -6856,7 +7591,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>326</v>
       </c>
@@ -6878,8 +7613,11 @@
       <c r="G240" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I240" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>327</v>
       </c>
@@ -6895,8 +7633,11 @@
       <c r="E241" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I241" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>328</v>
       </c>
@@ -6922,7 +7663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>329</v>
       </c>
@@ -6932,8 +7673,11 @@
       <c r="C243" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I243" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>330</v>
       </c>
@@ -6952,8 +7696,11 @@
       <c r="F244" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I244" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>331</v>
       </c>
@@ -6975,8 +7722,11 @@
       <c r="G245" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I245" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>334</v>
       </c>
@@ -6986,8 +7736,11 @@
       <c r="C246" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I246" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>335</v>
       </c>
@@ -7007,7 +7760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>336</v>
       </c>
@@ -7032,8 +7785,11 @@
       <c r="H248" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I248" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>338</v>
       </c>
@@ -7058,8 +7814,11 @@
       <c r="H249" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I249" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>339</v>
       </c>
@@ -7075,8 +7834,11 @@
       <c r="E250" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>340</v>
       </c>
@@ -7098,8 +7860,11 @@
       <c r="G251" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I251" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>341</v>
       </c>
@@ -7125,7 +7890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>342</v>
       </c>
@@ -7138,8 +7903,11 @@
       <c r="D253" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I253" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>343</v>
       </c>
@@ -7162,7 +7930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>344</v>
       </c>
@@ -7172,8 +7940,11 @@
       <c r="C255" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I255" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>345</v>
       </c>
@@ -7186,8 +7957,11 @@
       <c r="D256" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I256" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>346</v>
       </c>
@@ -7206,8 +7980,11 @@
       <c r="F257" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I257" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>347</v>
       </c>
@@ -7226,8 +8003,11 @@
       <c r="F258" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I258" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>348</v>
       </c>
@@ -7240,8 +8020,11 @@
       <c r="D259" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I259" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>349</v>
       </c>
@@ -7267,7 +8050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>350</v>
       </c>
@@ -7280,8 +8063,11 @@
       <c r="D261" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I261" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>351</v>
       </c>
@@ -7307,7 +8093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>352</v>
       </c>
@@ -7333,7 +8119,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>359</v>
       </c>
@@ -7359,7 +8145,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>363</v>
       </c>
@@ -7381,8 +8167,11 @@
       <c r="G265" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I265" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>367</v>
       </c>
@@ -7398,8 +8187,11 @@
       <c r="E266" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I266" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>368</v>
       </c>
@@ -7425,7 +8217,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>372</v>
       </c>
@@ -7451,7 +8243,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>375</v>
       </c>
@@ -7477,7 +8269,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>378</v>
       </c>
@@ -7490,8 +8282,11 @@
       <c r="D270" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I270" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>379</v>
       </c>
@@ -7517,7 +8312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>380</v>
       </c>
@@ -7543,7 +8338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>381</v>
       </c>
@@ -7565,8 +8360,11 @@
       <c r="G273" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I273" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>382</v>
       </c>
@@ -7592,7 +8390,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>383</v>
       </c>
@@ -7611,8 +8409,11 @@
       <c r="F275" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I275" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>384</v>
       </c>
@@ -7638,7 +8439,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>389</v>
       </c>
@@ -7664,7 +8465,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>390</v>
       </c>
@@ -7690,7 +8491,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>395</v>
       </c>
@@ -7706,8 +8507,11 @@
       <c r="E279" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I279" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>396</v>
       </c>
@@ -7726,8 +8530,11 @@
       <c r="F280" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I280" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>397</v>
       </c>
@@ -7746,8 +8553,11 @@
       <c r="F281" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I281" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>398</v>
       </c>
@@ -7763,8 +8573,11 @@
       <c r="E282" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I282" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>399</v>
       </c>
@@ -7786,8 +8599,11 @@
       <c r="G283" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I283" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>401</v>
       </c>
@@ -7806,8 +8622,11 @@
       <c r="F284" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I284" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>402</v>
       </c>
@@ -7829,8 +8648,11 @@
       <c r="G285" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I285" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>405</v>
       </c>
@@ -7856,7 +8678,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>406</v>
       </c>
@@ -7872,8 +8694,11 @@
       <c r="E287" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I287" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>407</v>
       </c>
@@ -7891,6 +8716,9 @@
       </c>
       <c r="F288" t="s">
         <v>55</v>
+      </c>
+      <c r="I288" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.45">

--- a/DADA2/WADE003-arcticpred-12SP1-taxa-130trunc2.xlsx
+++ b/DADA2/WADE003-arcticpred-12SP1-taxa-130trunc2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\DADA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/DADA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E106CED-5C26-489E-9255-3B7B0ACC0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1629,13 +1629,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,24 +1941,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I297" sqref="I297"/>
+    <sheetView tabSelected="1" topLeftCell="I67" workbookViewId="0">
+      <selection activeCell="I238" sqref="I238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="92.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="92.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2271,33 +2270,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>124</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>125</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>130</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>135</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>137</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>141</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>143</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>144</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>151</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>154</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>155</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>157</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>158</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>159</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>160</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>161</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>162</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -4503,7 +4502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>166</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>168</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>169</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>170</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>171</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>172</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>173</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>175</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>176</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>177</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>179</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>180</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>181</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>182</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>183</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>185</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>186</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>187</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>188</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>189</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>190</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>191</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>192</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>193</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>194</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>195</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>197</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>203</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>204</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>205</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>206</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>207</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>208</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>210</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>212</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>213</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>214</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>215</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>216</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>217</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>218</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>219</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>226</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>227</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>231</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>232</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>233</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>234</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>235</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>236</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>237</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>238</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>239</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>240</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>241</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>242</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>243</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>244</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>248</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>249</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>250</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>251</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>253</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>254</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>255</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>256</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>257</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>258</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>259</v>
       </c>
@@ -6575,7 +6574,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>260</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>261</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>262</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>263</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>268</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>269</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>270</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>271</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>273</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>274</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>277</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>281</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>282</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>283</v>
       </c>
@@ -6954,7 +6953,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>284</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>285</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>286</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>287</v>
       </c>
@@ -7040,7 +7039,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>288</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>289</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>290</v>
       </c>
@@ -7109,7 +7108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>291</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>292</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>293</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>294</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>295</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>296</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>301</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>302</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>305</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>306</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>309</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>310</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>311</v>
       </c>
@@ -7411,7 +7410,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>313</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>314</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>315</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>316</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>317</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>320</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>321</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>322</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>323</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>326</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>327</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>328</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>329</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>330</v>
       </c>
@@ -7700,7 +7699,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>331</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>334</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>335</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>336</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>338</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>339</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>340</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>341</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>342</v>
       </c>
@@ -7907,7 +7906,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>343</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>344</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>345</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>346</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>347</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>348</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>349</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>350</v>
       </c>
@@ -8067,7 +8066,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>351</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>352</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>359</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>363</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>367</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>368</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>372</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>375</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>378</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>379</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>380</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>381</v>
       </c>
@@ -8364,7 +8363,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>382</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>383</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>384</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>389</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>390</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>395</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>396</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>397</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>398</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>399</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>401</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>402</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>405</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>406</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>407</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>408</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>409</v>
       </c>
